--- a/DoAn01/DoAn01/Data/DataBase/FoodList.xlsx
+++ b/DoAn01/DoAn01/Data/DataBase/FoodList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B8D431-EB17-49B9-BD41-247F8A370C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3398B2-1B8E-411F-A523-3C5DCFEF0D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="292">
   <si>
     <t>https://youtu.be/EANhMhsZ-A4</t>
   </si>
@@ -796,9 +796,6 @@
 Dầu hào 2 muỗng canh
 Nước tương 2 muỗng canh
 Đường 1 muỗng canh</t>
-  </si>
-  <si>
-    <t>Index</t>
   </si>
   <si>
     <t>Tép đồng 200 gram
@@ -1229,6 +1226,12 @@
   </si>
   <si>
     <t>Sủi cảo là món ăn ngon khá phổ biến ở nước ta, có nguồn gốc từ Trung Quốc. Sủi cảo có rất nhiều cách chế biến như hấp, chiên,...  Sủi cảo khô là một món được biến tấu từ món truyền thống. Những viên sủi cảo vòng óng, tròn ụ với phần vỏ dai dai, mềm mượt, phần nhân bên trong có thịt tôm vừa giòn vừa tươi được bao bọc bởi phần thịt được nêm nếm vừa vị, chan lên sủi cảo là nước sốt đậm đà.</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>DayIndex</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1382,6 +1385,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1666,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1692,1204 +1698,1204 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="36">
       <c r="A1" s="17" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="185.25">
+    <row r="2" spans="1:14" ht="99.75">
       <c r="A2" s="18">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>203</v>
+      <c r="D2" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>208</v>
+        <v>279</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="171">
+    <row r="3" spans="1:14" ht="185.25">
       <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="6"/>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="171">
+    <row r="4" spans="1:14" ht="242.25">
       <c r="A4" s="18">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>195</v>
+        <v>246</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>200</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="128.25">
+    <row r="5" spans="1:14" ht="185.25">
       <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="6"/>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="156.75">
+    <row r="6" spans="1:14" ht="142.5">
       <c r="A6" s="18">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>185</v>
+        <v>247</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="156.75">
       <c r="A7" s="18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="156.75">
+    <row r="8" spans="1:14" ht="270.75">
       <c r="A8" s="18">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="185.25">
+    <row r="9" spans="1:14" ht="128.25">
       <c r="A9" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="21" t="b">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="171">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="171">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="242.25">
-      <c r="A10" s="18">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="185.25">
-      <c r="A11" s="18">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>13</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="270.75">
+    <row r="12" spans="1:14" ht="171">
       <c r="A12" s="18">
-        <v>7</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>56</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="256.5">
+    <row r="13" spans="1:14" ht="156.75">
       <c r="A13" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="21" t="b">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="199.5">
+    <row r="14" spans="1:14" ht="156.75">
       <c r="A14" s="18">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="21" t="b">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="171">
+    <row r="15" spans="1:14" ht="256.5">
       <c r="A15" s="18">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="21" t="b">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>182</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="213.75">
       <c r="A16" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>286</v>
+        <v>106</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="242.25">
+    <row r="17" spans="1:14" ht="156.75">
       <c r="A17" s="18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>283</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7"/>
+        <v>266</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="171">
+    <row r="18" spans="1:14" ht="213.75">
       <c r="A18" s="18">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="21" t="b">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="171">
+    <row r="19" spans="1:14" ht="228">
       <c r="A19" s="18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="21" t="b">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="327.75">
+        <v>131</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="71.25">
       <c r="A20" s="18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>269</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="156.75">
+    <row r="21" spans="1:14" ht="242.25">
       <c r="A21" s="18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
+        <v>137</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>43</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="185.25">
+    <row r="22" spans="1:14" ht="213.75">
       <c r="A22" s="18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="21" t="b">
-        <v>0</v>
+        <v>147</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>223</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="213.75">
+    <row r="23" spans="1:14" ht="142.5">
       <c r="A23" s="18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="21" t="b">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>113</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="99.75">
+    <row r="24" spans="1:14" ht="128.25">
       <c r="A24" s="18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>282</v>
+        <v>160</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>6</v>
+        <v>271</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="228">
+    <row r="25" spans="1:14" ht="327.75">
       <c r="A25" s="18">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>290</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="213.75">
+    <row r="26" spans="1:14" ht="171">
       <c r="A26" s="18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="21" t="b">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="128.25">
+    <row r="27" spans="1:14" ht="156.75">
       <c r="A27" s="18">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>232</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" ht="142.5">
+        <v>189</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="171">
       <c r="A28" s="18">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="21" t="b">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="71.25">
+    <row r="29" spans="1:14" ht="185.25">
       <c r="A29" s="18">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>133</v>
+        <v>202</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="156.75">
+    <row r="30" spans="1:14" ht="199.5">
       <c r="A30" s="18">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="21" t="b">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="142.5">
+    <row r="31" spans="1:14" ht="185.25">
       <c r="A31" s="18">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>285</v>
+        <v>216</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>36</v>
+        <v>276</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="5"/>
@@ -3073,10 +3079,10 @@
     </row>
   </sheetData>
   <sortState ref="A2:N31">
-    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{5A7B925A-EAB7-4C0D-82D5-21ABD0DB6459}"/>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{5A7B925A-EAB7-4C0D-82D5-21ABD0DB6459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DoAn01/DoAn01/Data/DataBase/FoodList.xlsx
+++ b/DoAn01/DoAn01/Data/DataBase/FoodList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3398B2-1B8E-411F-A523-3C5DCFEF0D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2600D0E-4B52-4E80-BE99-24F469195261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1250,7 +1250,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1262,14 +1262,14 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1277,7 +1277,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1285,14 +1285,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1672,31 +1672,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="21"/>
-    <col min="5" max="5" width="33.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="36">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="56.25">
       <c r="A1" s="17" t="s">
         <v>291</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:14" ht="99.75">
+    <row r="2" spans="1:14" ht="105">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="185.25">
+    <row r="3" spans="1:14" ht="195">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="242.25">
+    <row r="4" spans="1:14" ht="255">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="185.25">
+    <row r="5" spans="1:14" ht="210">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="142.5">
+    <row r="6" spans="1:14" ht="165">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="156.75">
+    <row r="7" spans="1:14" ht="180">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="270.75">
+    <row r="8" spans="1:14" ht="285">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="128.25">
+    <row r="9" spans="1:14" ht="135">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="171">
+    <row r="10" spans="1:14" ht="199.5">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="171">
+    <row r="11" spans="1:14" ht="180">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="171">
+    <row r="12" spans="1:14" ht="180">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="156.75">
+    <row r="13" spans="1:14" ht="180">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="156.75">
+    <row r="14" spans="1:14" ht="171">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="256.5">
+    <row r="15" spans="1:14" ht="270">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="213.75">
+    <row r="16" spans="1:14" ht="225">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="156.75">
+    <row r="17" spans="1:14" ht="171">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="213.75">
+    <row r="18" spans="1:14" ht="225">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="228">
+    <row r="19" spans="1:14" ht="240">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="71.25">
+    <row r="20" spans="1:14" ht="85.5">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="242.25">
+    <row r="21" spans="1:14" ht="255">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="213.75">
+    <row r="22" spans="1:14" ht="225">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="142.5">
+    <row r="23" spans="1:14" ht="171">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="128.25">
+    <row r="24" spans="1:14" ht="135">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="327.75">
+    <row r="25" spans="1:14" ht="345">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="171">
+    <row r="26" spans="1:14" ht="195">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="156.75">
+    <row r="27" spans="1:14" ht="171">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="171">
+    <row r="28" spans="1:14" ht="180">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="185.25">
+    <row r="29" spans="1:14" ht="195">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="199.5">
+    <row r="30" spans="1:14" ht="210">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="185.25">
+    <row r="31" spans="1:14" ht="195">
       <c r="A31" s="18">
         <v>30</v>
       </c>
